--- a/exports/yield_files/LU 6 Early-21.xlsx
+++ b/exports/yield_files/LU 6 Early-21.xlsx
@@ -675,9 +675,15 @@
       <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="P2" t="n">
+        <v>44.56</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>67.19</v>
+      </c>
       <c r="R2" t="n">
         <v>2975.5</v>
       </c>
@@ -730,9 +736,15 @@
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>44.36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67.62</v>
+      </c>
       <c r="R3" t="n">
         <v>2887.7</v>
       </c>
@@ -879,9 +891,15 @@
       <c r="N6" t="n">
         <v>1</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>64.97</v>
+      </c>
       <c r="R6" t="n">
         <v>2784.9</v>
       </c>
@@ -934,9 +952,15 @@
       <c r="N7" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>43.52</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>65.82</v>
+      </c>
       <c r="R7" t="n">
         <v>2928.1</v>
       </c>
@@ -1083,9 +1107,15 @@
       <c r="N10" t="n">
         <v>1.5</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>42.55</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>66.27</v>
+      </c>
       <c r="R10" t="n">
         <v>2516.5</v>
       </c>
@@ -1138,9 +1168,15 @@
       <c r="N11" t="n">
         <v>1.5</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>67.5</v>
+      </c>
       <c r="R11" t="n">
         <v>2995.4</v>
       </c>
@@ -1287,9 +1323,15 @@
       <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="P14" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>63.61</v>
+      </c>
       <c r="R14" t="n">
         <v>2345</v>
       </c>
@@ -1342,9 +1384,15 @@
       <c r="N15" t="n">
         <v>1.5</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="P15" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>64.23</v>
+      </c>
       <c r="R15" t="n">
         <v>1804.2</v>
       </c>
@@ -1491,9 +1539,15 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>65.64</v>
+      </c>
       <c r="R18" t="n">
         <v>2565.4</v>
       </c>
@@ -1546,9 +1600,15 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>66.85</v>
+      </c>
       <c r="R19" t="n">
         <v>2851.9</v>
       </c>
@@ -1695,9 +1755,15 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="P22" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>66.23</v>
+      </c>
       <c r="R22" t="n">
         <v>2653</v>
       </c>
@@ -1750,9 +1816,15 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>45.67</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>66.36</v>
+      </c>
       <c r="R23" t="n">
         <v>2721</v>
       </c>
@@ -1899,9 +1971,15 @@
       <c r="N26" t="n">
         <v>1.5</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="P26" t="n">
+        <v>43.96</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65.53</v>
+      </c>
       <c r="R26" t="n">
         <v>2522.3</v>
       </c>
@@ -1954,9 +2032,15 @@
       <c r="N27" t="n">
         <v>1.5</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>44.23</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>65.98</v>
+      </c>
       <c r="R27" t="n">
         <v>2451.8</v>
       </c>
@@ -2103,9 +2187,15 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>66.44</v>
+      </c>
       <c r="R30" t="n">
         <v>2896.9</v>
       </c>
@@ -2158,9 +2248,15 @@
       <c r="N31" t="n">
         <v>1.5</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>65.09</v>
+      </c>
       <c r="R31" t="n">
         <v>3058.2</v>
       </c>
@@ -2307,9 +2403,15 @@
       <c r="N34" t="n">
         <v>1.5</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>43.86</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>66.66</v>
+      </c>
       <c r="R34" t="n">
         <v>2839.9</v>
       </c>
@@ -2362,9 +2464,15 @@
       <c r="N35" t="n">
         <v>1.5</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P35" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>64.65</v>
+      </c>
       <c r="R35" t="n">
         <v>2486.1</v>
       </c>
@@ -2511,9 +2619,15 @@
       <c r="N38" t="n">
         <v>1.5</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="P38" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>65.5</v>
+      </c>
       <c r="R38" t="n">
         <v>2625.4</v>
       </c>
@@ -2566,9 +2680,15 @@
       <c r="N39" t="n">
         <v>2</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="P39" t="n">
+        <v>43.77</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>66.66</v>
+      </c>
       <c r="R39" t="n">
         <v>2832.8</v>
       </c>
@@ -2715,9 +2835,15 @@
       <c r="N42" t="n">
         <v>2</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>65.94</v>
+      </c>
       <c r="R42" t="n">
         <v>2552</v>
       </c>
@@ -2770,9 +2896,15 @@
       <c r="N43" t="n">
         <v>2</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P43" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>67.28</v>
+      </c>
       <c r="R43" t="n">
         <v>2826.1</v>
       </c>
@@ -2919,9 +3051,15 @@
       <c r="N46" t="n">
         <v>1</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="P46" t="n">
+        <v>43.13</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>64.49</v>
+      </c>
       <c r="R46" t="n">
         <v>2908.5</v>
       </c>
@@ -2974,9 +3112,15 @@
       <c r="N47" t="n">
         <v>1</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P47" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>65.1</v>
+      </c>
       <c r="R47" t="n">
         <v>1759.8</v>
       </c>
@@ -3123,9 +3267,15 @@
       <c r="N50" t="n">
         <v>1</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="P50" t="n">
+        <v>39.79</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>63.39</v>
+      </c>
       <c r="R50" t="n">
         <v>2611</v>
       </c>
@@ -3178,9 +3328,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="P51" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>64.75</v>
+      </c>
       <c r="R51" t="n">
         <v>3030.5</v>
       </c>
@@ -3327,9 +3483,15 @@
       <c r="N54" t="n">
         <v>1</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="P54" t="n">
+        <v>40.84</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>65.23</v>
+      </c>
       <c r="R54" t="n">
         <v>3002.9</v>
       </c>
@@ -3382,9 +3544,15 @@
       <c r="N55" t="n">
         <v>1.5</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="P55" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>66.47</v>
+      </c>
       <c r="R55" t="n">
         <v>2842.8</v>
       </c>
@@ -3531,9 +3699,15 @@
       <c r="N58" t="n">
         <v>1.5</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P58" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>64.85</v>
+      </c>
       <c r="R58" t="n">
         <v>2567.3</v>
       </c>
@@ -3586,9 +3760,15 @@
       <c r="N59" t="n">
         <v>1</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="P59" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>64.28</v>
+      </c>
       <c r="R59" t="n">
         <v>2614</v>
       </c>
@@ -3735,9 +3915,15 @@
       <c r="N62" t="n">
         <v>1</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>64</v>
+      </c>
       <c r="R62" t="n">
         <v>2503.9</v>
       </c>
@@ -3790,9 +3976,15 @@
       <c r="N63" t="n">
         <v>2</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>63.9</v>
+      </c>
       <c r="R63" t="n">
         <v>2761.9</v>
       </c>
@@ -3939,9 +4131,15 @@
       <c r="N66" t="n">
         <v>1</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="P66" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>64.55</v>
+      </c>
       <c r="R66" t="n">
         <v>3053.9</v>
       </c>
@@ -3994,9 +4192,15 @@
       <c r="N67" t="n">
         <v>1.5</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="P67" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>64.37</v>
+      </c>
       <c r="R67" t="n">
         <v>2697</v>
       </c>
@@ -4143,9 +4347,15 @@
       <c r="N70" t="n">
         <v>1.5</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="P70" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>64.78</v>
+      </c>
       <c r="R70" t="n">
         <v>2764.5</v>
       </c>
@@ -4198,9 +4408,15 @@
       <c r="N71" t="n">
         <v>2</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="P71" t="n">
+        <v>43.72</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>64.99</v>
+      </c>
       <c r="R71" t="n">
         <v>2722.2</v>
       </c>
@@ -4347,9 +4563,15 @@
       <c r="N74" t="n">
         <v>1.5</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="P74" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>63.51</v>
+      </c>
       <c r="R74" t="n">
         <v>2860.5</v>
       </c>
@@ -4402,9 +4624,15 @@
       <c r="N75" t="n">
         <v>1</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="P75" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>65.35</v>
+      </c>
       <c r="R75" t="n">
         <v>2812</v>
       </c>
@@ -4551,9 +4779,15 @@
       <c r="N78" t="n">
         <v>3</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="P78" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>65.49</v>
+      </c>
       <c r="R78" t="n">
         <v>2560.7</v>
       </c>
@@ -4606,9 +4840,15 @@
       <c r="N79" t="n">
         <v>2</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="O79" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="P79" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>64.1</v>
+      </c>
       <c r="R79" t="n">
         <v>1879</v>
       </c>
@@ -4755,9 +4995,15 @@
       <c r="N82" t="n">
         <v>1.5</v>
       </c>
-      <c r="O82"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="O82" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="P82" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>64.87</v>
+      </c>
       <c r="R82" t="n">
         <v>2840.6</v>
       </c>
@@ -4810,9 +5056,15 @@
       <c r="N83" t="n">
         <v>1.5</v>
       </c>
-      <c r="O83"/>
-      <c r="P83"/>
-      <c r="Q83"/>
+      <c r="O83" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="P83" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>63.18</v>
+      </c>
       <c r="R83" t="n">
         <v>2433</v>
       </c>
@@ -4959,9 +5211,15 @@
       <c r="N86" t="n">
         <v>1</v>
       </c>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
+      <c r="O86" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="P86" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>65.92</v>
+      </c>
       <c r="R86" t="n">
         <v>2876.8</v>
       </c>
@@ -5014,9 +5272,15 @@
       <c r="N87" t="n">
         <v>1.5</v>
       </c>
-      <c r="O87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
+      <c r="O87" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="P87" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>66.78</v>
+      </c>
       <c r="R87" t="n">
         <v>2592</v>
       </c>
@@ -5163,9 +5427,15 @@
       <c r="N90" t="n">
         <v>1</v>
       </c>
-      <c r="O90"/>
-      <c r="P90"/>
-      <c r="Q90"/>
+      <c r="O90" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="P90" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>65.03</v>
+      </c>
       <c r="R90" t="n">
         <v>2599.6</v>
       </c>
@@ -5218,9 +5488,15 @@
       <c r="N91" t="n">
         <v>1.5</v>
       </c>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
+      <c r="O91" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="P91" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>64.45</v>
+      </c>
       <c r="R91" t="n">
         <v>2880</v>
       </c>
@@ -5367,9 +5643,15 @@
       <c r="N94" t="n">
         <v>1</v>
       </c>
-      <c r="O94"/>
-      <c r="P94"/>
-      <c r="Q94"/>
+      <c r="O94" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="P94" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>63.55</v>
+      </c>
       <c r="R94" t="n">
         <v>2464.5</v>
       </c>
@@ -5422,9 +5704,15 @@
       <c r="N95" t="n">
         <v>1</v>
       </c>
-      <c r="O95"/>
-      <c r="P95"/>
-      <c r="Q95"/>
+      <c r="O95" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="P95" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>63.66</v>
+      </c>
       <c r="R95" t="n">
         <v>2297.8</v>
       </c>
@@ -5571,9 +5859,15 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
+      <c r="O98" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="P98" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>65.43</v>
+      </c>
       <c r="R98" t="n">
         <v>2665.9</v>
       </c>
@@ -5626,9 +5920,15 @@
       <c r="N99" t="n">
         <v>1.5</v>
       </c>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
+      <c r="O99" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>65.68</v>
+      </c>
       <c r="R99" t="n">
         <v>2730.3</v>
       </c>
@@ -5775,9 +6075,15 @@
       <c r="N102" t="n">
         <v>1</v>
       </c>
-      <c r="O102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
+      <c r="O102" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="P102" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>65.83</v>
+      </c>
       <c r="R102" t="n">
         <v>3188.2</v>
       </c>
@@ -5830,9 +6136,15 @@
       <c r="N103" t="n">
         <v>1</v>
       </c>
-      <c r="O103"/>
-      <c r="P103"/>
-      <c r="Q103"/>
+      <c r="O103" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="P103" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>65.72</v>
+      </c>
       <c r="R103" t="n">
         <v>2573.2</v>
       </c>
@@ -5979,9 +6291,15 @@
       <c r="N106" t="n">
         <v>1</v>
       </c>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
+      <c r="O106" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="P106" t="n">
+        <v>43.24</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>65.41</v>
+      </c>
       <c r="R106" t="n">
         <v>2327.6</v>
       </c>
@@ -6034,9 +6352,15 @@
       <c r="N107" t="n">
         <v>1.5</v>
       </c>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
+      <c r="O107" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="P107" t="n">
+        <v>43.54</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>66</v>
+      </c>
       <c r="R107" t="n">
         <v>2906.2</v>
       </c>
@@ -6183,9 +6507,15 @@
       <c r="N110" t="n">
         <v>2</v>
       </c>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
+      <c r="O110" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="P110" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>63.88</v>
+      </c>
       <c r="R110" t="n">
         <v>2481.2</v>
       </c>
@@ -6238,9 +6568,15 @@
       <c r="N111" t="n">
         <v>1</v>
       </c>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
+      <c r="O111" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="P111" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>63.15</v>
+      </c>
       <c r="R111" t="n">
         <v>2573.2</v>
       </c>
@@ -6387,9 +6723,15 @@
       <c r="N114" t="n">
         <v>1</v>
       </c>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
+      <c r="O114" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="P114" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>65.38</v>
+      </c>
       <c r="R114" t="n">
         <v>2624.1</v>
       </c>
@@ -6442,9 +6784,15 @@
       <c r="N115" t="n">
         <v>1</v>
       </c>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
+      <c r="O115" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="P115" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>64.76</v>
+      </c>
       <c r="R115" t="n">
         <v>2653.3</v>
       </c>
@@ -6591,9 +6939,15 @@
       <c r="N118" t="n">
         <v>1</v>
       </c>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
+      <c r="O118" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="P118" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>66.56</v>
+      </c>
       <c r="R118" t="n">
         <v>2964.9</v>
       </c>
@@ -6646,9 +7000,15 @@
       <c r="N119" t="n">
         <v>1.5</v>
       </c>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
+      <c r="O119" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="P119" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>66.44</v>
+      </c>
       <c r="R119" t="n">
         <v>2657</v>
       </c>
@@ -6795,9 +7155,15 @@
       <c r="N122" t="n">
         <v>1</v>
       </c>
-      <c r="O122"/>
-      <c r="P122"/>
-      <c r="Q122"/>
+      <c r="O122" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="P122" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>62.78</v>
+      </c>
       <c r="R122" t="n">
         <v>2172.7</v>
       </c>
@@ -6850,9 +7216,15 @@
       <c r="N123" t="n">
         <v>1.5</v>
       </c>
-      <c r="O123"/>
-      <c r="P123"/>
-      <c r="Q123"/>
+      <c r="O123" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="P123" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>63.56</v>
+      </c>
       <c r="R123" t="n">
         <v>2186.9</v>
       </c>
@@ -6999,9 +7371,15 @@
       <c r="N126" t="n">
         <v>1</v>
       </c>
-      <c r="O126"/>
-      <c r="P126"/>
-      <c r="Q126"/>
+      <c r="O126" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="P126" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>66.49</v>
+      </c>
       <c r="R126" t="n">
         <v>2900.2</v>
       </c>
@@ -7054,9 +7432,15 @@
       <c r="N127" t="n">
         <v>1</v>
       </c>
-      <c r="O127"/>
-      <c r="P127"/>
-      <c r="Q127"/>
+      <c r="O127" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="P127" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>64.7</v>
+      </c>
       <c r="R127" t="n">
         <v>2676.8</v>
       </c>
@@ -7203,9 +7587,15 @@
       <c r="N130" t="n">
         <v>1</v>
       </c>
-      <c r="O130"/>
-      <c r="P130"/>
-      <c r="Q130"/>
+      <c r="O130" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="P130" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>66.27</v>
+      </c>
       <c r="R130" t="n">
         <v>3148</v>
       </c>
@@ -7258,9 +7648,15 @@
       <c r="N131" t="n">
         <v>1.5</v>
       </c>
-      <c r="O131"/>
-      <c r="P131"/>
-      <c r="Q131"/>
+      <c r="O131" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="P131" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R131" t="n">
         <v>2559.5</v>
       </c>
@@ -7407,9 +7803,15 @@
       <c r="N134" t="n">
         <v>2</v>
       </c>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
+      <c r="O134" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="P134" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>66.38</v>
+      </c>
       <c r="R134" t="n">
         <v>2581.2</v>
       </c>
@@ -7462,9 +7864,15 @@
       <c r="N135" t="n">
         <v>1</v>
       </c>
-      <c r="O135"/>
-      <c r="P135"/>
-      <c r="Q135"/>
+      <c r="O135" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="P135" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>66.56</v>
+      </c>
       <c r="R135" t="n">
         <v>2670.1</v>
       </c>
@@ -7611,9 +8019,15 @@
       <c r="N138" t="n">
         <v>1.5</v>
       </c>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
+      <c r="O138" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="P138" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>62.63</v>
+      </c>
       <c r="R138" t="n">
         <v>2867.3</v>
       </c>
@@ -7666,9 +8080,15 @@
       <c r="N139" t="n">
         <v>2</v>
       </c>
-      <c r="O139"/>
-      <c r="P139"/>
-      <c r="Q139"/>
+      <c r="O139" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="P139" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>62.18</v>
+      </c>
       <c r="R139" t="n">
         <v>2899.5</v>
       </c>
@@ -7815,9 +8235,15 @@
       <c r="N142" t="n">
         <v>1</v>
       </c>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
+      <c r="O142" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="P142" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>66.4</v>
+      </c>
       <c r="R142" t="n">
         <v>2910.5</v>
       </c>
@@ -7870,9 +8296,15 @@
       <c r="N143" t="n">
         <v>1</v>
       </c>
-      <c r="O143"/>
-      <c r="P143"/>
-      <c r="Q143"/>
+      <c r="O143" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="P143" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>66.67</v>
+      </c>
       <c r="R143" t="n">
         <v>2349</v>
       </c>
@@ -8019,9 +8451,15 @@
       <c r="N146" t="n">
         <v>1</v>
       </c>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
+      <c r="O146" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="P146" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>62.19</v>
+      </c>
       <c r="R146" t="n">
         <v>2808.8</v>
       </c>
@@ -8074,9 +8512,15 @@
       <c r="N147" t="n">
         <v>1.5</v>
       </c>
-      <c r="O147"/>
-      <c r="P147"/>
-      <c r="Q147"/>
+      <c r="O147" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="P147" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>62.89</v>
+      </c>
       <c r="R147" t="n">
         <v>3025.1</v>
       </c>
@@ -8223,9 +8667,15 @@
       <c r="N150" t="n">
         <v>1.5</v>
       </c>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
+      <c r="O150" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P150" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>62.8</v>
+      </c>
       <c r="R150" t="n">
         <v>2233.7</v>
       </c>
@@ -8278,9 +8728,15 @@
       <c r="N151" t="n">
         <v>1</v>
       </c>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
+      <c r="O151" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="P151" t="n">
+        <v>38.61</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>63.33</v>
+      </c>
       <c r="R151" t="n">
         <v>2612</v>
       </c>
@@ -8427,9 +8883,15 @@
       <c r="N154" t="n">
         <v>2</v>
       </c>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
+      <c r="O154" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P154" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>63.33</v>
+      </c>
       <c r="R154" t="n">
         <v>2560.1</v>
       </c>
@@ -8482,9 +8944,15 @@
       <c r="N155" t="n">
         <v>2</v>
       </c>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
+      <c r="O155" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="P155" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>63.93</v>
+      </c>
       <c r="R155" t="n">
         <v>2425.4</v>
       </c>
@@ -8631,9 +9099,15 @@
       <c r="N158" t="n">
         <v>2.5</v>
       </c>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
+      <c r="O158" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="P158" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>64.62</v>
+      </c>
       <c r="R158" t="n">
         <v>2554.1</v>
       </c>
@@ -8686,9 +9160,15 @@
       <c r="N159" t="n">
         <v>2.5</v>
       </c>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
+      <c r="O159" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="P159" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>64.8</v>
+      </c>
       <c r="R159" t="n">
         <v>2554.1</v>
       </c>
